--- a/log.xlsx
+++ b/log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guerr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Reps\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE689BD5-B445-47BF-9BAF-EEBB2A01710F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB72FAD-E2D9-4B84-BF0B-E7E7DE91A8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,8 +212,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6F4A10F-78CC-4999-A93A-56739E8CAB0E}" name="Table1" displayName="Table1" ref="A1:E1583" totalsRowShown="0">
-  <autoFilter ref="A1:E1583" xr:uid="{E6F4A10F-78CC-4999-A93A-56739E8CAB0E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6F4A10F-78CC-4999-A93A-56739E8CAB0E}" name="Table1" displayName="Table1" ref="A1:E1585" totalsRowShown="0">
+  <autoFilter ref="A1:E1585" xr:uid="{E6F4A10F-78CC-4999-A93A-56739E8CAB0E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E03EDE2C-BE14-43ED-86F4-0B73D678695F}" name="PERNR NUMBER"/>
     <tableColumn id="7" xr3:uid="{C387D556-FFC8-437B-8337-1E4D8D9B5868}" name="EMPLOYEE LAST NAME" dataDxfId="3"/>
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1583"/>
+  <dimension ref="A1:E1585"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A1559" workbookViewId="0">
+      <selection activeCell="D1586" sqref="D1586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13171,8 +13171,26 @@
     <row r="1583" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1583" s="2"/>
       <c r="C1583" s="2"/>
-      <c r="D1583" s="3"/>
+      <c r="D1583" s="3">
+        <v>45976</v>
+      </c>
       <c r="E1583" s="2"/>
+    </row>
+    <row r="1584" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1584" s="2"/>
+      <c r="C1584" s="2"/>
+      <c r="D1584" s="3">
+        <v>46006</v>
+      </c>
+      <c r="E1584" s="2"/>
+    </row>
+    <row r="1585" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1585" s="2"/>
+      <c r="C1585" s="2"/>
+      <c r="D1585" s="3">
+        <v>46037</v>
+      </c>
+      <c r="E1585" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
